--- a/biology/Botanique/Sylvie_Vartan_(rose)/Sylvie_Vartan_(rose).xlsx
+++ b/biology/Botanique/Sylvie_Vartan_(rose)/Sylvie_Vartan_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Sylvie Vartan' est un cultivar de rosier (nom d'obtention Evesylva) créé par l'obtenteur André Eve en 1969[1]. Elle doit son nom à la chanteuse française Sylvie Vartan.
+'Sylvie Vartan' est un cultivar de rosier (nom d'obtention Evesylva) créé par l'obtenteur André Eve en 1969. Elle doit son nom à la chanteuse française Sylvie Vartan.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est la première création d'André Eve[2],[3] : un rosier polyantha au feuillage vert foncé. La fleur d'un rose soutenu de 8 à 10 cm de largeur et à 35-40 pétales[1] est légèrement parfumée et sa floraison est abondamment remontante[2]. Les fleurs s'ouvrent d'abord en rosette avant de prendre la forme pleine d'une pivoine[4].
-Cette rose résistante aux maladies est idéale pour les mixed-borders et les plates bandes et pour les fleurs coupées. Le rosier peut atteindre 90 cm de hauteur[1]. On peut notamment l'admirer à Orléans, à la roseraie Jean-Dupont, conservatoire des roses orléanaises.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est la première création d'André Eve, : un rosier polyantha au feuillage vert foncé. La fleur d'un rose soutenu de 8 à 10 cm de largeur et à 35-40 pétales est légèrement parfumée et sa floraison est abondamment remontante. Les fleurs s'ouvrent d'abord en rosette avant de prendre la forme pleine d'une pivoine.
+Cette rose résistante aux maladies est idéale pour les mixed-borders et les plates bandes et pour les fleurs coupées. Le rosier peut atteindre 90 cm de hauteur. On peut notamment l'admirer à Orléans, à la roseraie Jean-Dupont, conservatoire des roses orléanaises.
 </t>
         </is>
       </c>
